--- a/emissions/sources/Emisije TGP iz cestnega prometa za Podnebnik razdelitev na potniški in težki tovorni promet.xlsx
+++ b/emissions/sources/Emisije TGP iz cestnega prometa za Podnebnik razdelitev na potniški in težki tovorni promet.xlsx
@@ -26,14 +26,25 @@
   </authors>
   <commentList>
     <comment ref="AL3" authorId="0">
-      <text/>
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+      </text>
     </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
   <si>
     <t xml:space="preserve">Emisije toplogrednih plinov (TGP) iz cestnega prometa za obdobje 1986-2019</t>
   </si>
@@ -63,6 +74,9 @@
   </si>
   <si>
     <t xml:space="preserve">Emisije N2O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ocenjeno</t>
   </si>
 </sst>
 </file>
@@ -437,13 +451,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AL9"/>
+  <dimension ref="A1:AO12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="X1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AL3" activeCellId="0" sqref="AL3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="S1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AM12" activeCellId="0" sqref="AM12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.57"/>
@@ -572,6 +586,9 @@
       <c r="AL3" s="0" t="n">
         <v>2020</v>
       </c>
+      <c r="AM3" s="0" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
@@ -689,6 +706,17 @@
         <f aca="false">(1-AJ4)*AI3</f>
         <v>1228.66133623325</v>
       </c>
+      <c r="AM4" s="0" t="n">
+        <f aca="false">AO4*AN4</f>
+        <v>1297.93925356102</v>
+      </c>
+      <c r="AN4" s="0" t="n">
+        <f aca="false">1-AN5</f>
+        <v>0.921177610760125</v>
+      </c>
+      <c r="AO4" s="0" t="n">
+        <v>1409</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="12" t="s">
@@ -806,6 +834,14 @@
         <f aca="false">AK5*AJ4</f>
         <v>105.132844043667</v>
       </c>
+      <c r="AM5" s="0" t="n">
+        <f aca="false">AN5*AO4</f>
+        <v>111.060746438984</v>
+      </c>
+      <c r="AN5" s="0" t="n">
+        <f aca="false">AL5/(AL5+AL4)</f>
+        <v>0.0788223892398749</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="16" t="s">
@@ -922,6 +958,9 @@
       <c r="AL6" s="0" t="n">
         <v>0.02115875430788</v>
       </c>
+      <c r="AM6" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="12" t="s">
@@ -1038,6 +1077,9 @@
       <c r="AL7" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="AM7" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="16" t="s">
@@ -1154,6 +1196,9 @@
       <c r="AL8" s="0" t="n">
         <v>0.08247420347025</v>
       </c>
+      <c r="AM8" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="12" t="s">
@@ -1269,6 +1314,14 @@
       </c>
       <c r="AL9" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="AM9" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AM12" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1279,5 +1332,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>